--- a/public/preprocessing/@gouvarilix.xlsx
+++ b/public/preprocessing/@gouvarilix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21211</v>
+        <v>24826</v>
       </c>
       <c r="C2" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>yah sama</t>
+          <t>hahah anjir</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['yah', 'sama']</t>
+          <t>['hahah', 'anjir']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['haha', 'anjir']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['haha', 'anjir']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['haha', 'anjir']</t>
         </is>
       </c>
     </row>
@@ -511,30 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21212</v>
+        <v>24827</v>
       </c>
       <c r="C3" t="n">
-        <v>257</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>297</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>lu katanya mau bikin prom baru anjir</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['lu', 'katanya', 'mau', 'bikin', 'prom', 'baru', 'anjir']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['kamu', 'katanya', 'mau', 'bikin', 'prom', 'baru', 'anjir']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['prom', 'anjir']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['prom', 'anjir']</t>
         </is>
       </c>
     </row>
@@ -543,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21213</v>
+        <v>24828</v>
       </c>
       <c r="C4" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>bikinin haeder dong</t>
+          <t>rt nct  the th sense mv hits million views thank you for your love and support</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['bikinin', 'haeder', 'dong']</t>
+          <t>['rt', 'nct', 'the', 'th', 'sense', 'mv', 'hits', 'million', 'views', 'thank', 'you', 'for', 'your', 'love', 'and', 'support']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'nct', 'the', 'tahun', 'sense', 'video, musik', 'hit', 'million', 'views', 'terima, kasih', 'kamu', 'for', 'your', 'love', 'and', 'support']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['bikinin', 'haeder']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['bikinin', 'haeder']</t>
+          <t>['nct', 'the', 'sense', 'video, musik', 'hit', 'million', 'views', 'terima, kasih', 'for', 'your', 'love', 'and', 'support']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['nct', 'the', 'sense', 'video musik', 'hit', 'million', 'views', 'terima kasih', 'for', 'your', 'love', 'and', 'support']</t>
         </is>
       </c>
     </row>
@@ -579,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21214</v>
+        <v>24829</v>
       </c>
       <c r="C5" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>eak layout baru</t>
+          <t>mute entar kalau bub kesannya gimana gitu</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['eak', 'layout', 'baru']</t>
+          <t>['mute', 'entar', 'kalau', 'bub', 'kesannya', 'gimana', 'gitu']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['mute', 'nanti', 'kalau', 'bub', 'kesannya', 'bagaimana', 'begitu']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['eak', 'layout']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['eak', 'layout']</t>
+          <t>['mute', 'bub', 'kesannya']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['mute', 'bub', 'kesan']</t>
         </is>
       </c>
     </row>
@@ -615,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21215</v>
+        <v>24830</v>
       </c>
       <c r="C6" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>engga</t>
+          <t>done</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['engga']</t>
+          <t>['done']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['done']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['engga']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['engga']</t>
+          <t>['done']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['done']</t>
         </is>
       </c>
     </row>
@@ -651,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21216</v>
+        <v>24831</v>
       </c>
       <c r="C7" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>hahah</t>
+          <t>rt munconvo open follback rt this tweet follow reply random goodluck</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['hahah']</t>
+          <t>['rt', 'munconvo', 'open', 'follback', 'rt', 'this', 'tweet', 'follow', 'reply', 'random', 'goodluck']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'munconvo', 'open', 'ikuti', 'rt', 'this', 'twit', 'follow', 'reply', 'random', 'good, luck']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['hahah']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['hahah']</t>
+          <t>['munconvo', 'open', 'ikuti', 'this', 'twit', 'follow', 'reply', 'random', 'good, luck']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['munconvo', 'open', 'ikut', 'this', 'twit', 'follow', 'reply', 'random', 'good luck']</t>
         </is>
       </c>
     </row>
@@ -687,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21217</v>
+        <v>24832</v>
       </c>
       <c r="C8" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ahhah</t>
+          <t>bener</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['ahhah']</t>
+          <t>['bener']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['benar']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['ahhah']</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['ahhah']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -723,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21218</v>
+        <v>24833</v>
       </c>
       <c r="C9" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>hah</t>
+          <t>gua</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['hah']</t>
+          <t>['gua']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['gue']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['hah']</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['hah']</t>
+          <t>['gue']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['gue']</t>
         </is>
       </c>
     </row>
@@ -759,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21219</v>
+        <v>24834</v>
       </c>
       <c r="C10" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>gua lupa anjir</t>
+          <t>banyak yang close kah di main acc</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['gua', 'lupa', 'anjir']</t>
+          <t>['banyak', 'yang', 'close', 'kah', 'di', 'main', 'acc']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['banyak', 'yang', 'close', 'kah', 'di', 'main', 'acc']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['gua', 'lupa', 'anjir']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['gua', 'lupa', 'anjir']</t>
+          <t>['close', 'kah', 'main', 'acc']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['close', 'kah', 'main', 'acc']</t>
         </is>
       </c>
     </row>
@@ -795,30 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21220</v>
+        <v>24835</v>
       </c>
       <c r="C11" t="n">
-        <v>257</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>297</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>abel</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['abel']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['abel']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['abel']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['abel']</t>
         </is>
       </c>
     </row>
@@ -827,34 +890,35 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21221</v>
+        <v>24836</v>
       </c>
       <c r="C12" t="n">
-        <v>257</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>lucuu jadi pingin beli</t>
-        </is>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['lucuu', 'jadi', 'pingin', 'beli']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['lucuu', 'pingin', 'beli']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['lucuu', 'pingin', 'beli']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -863,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21222</v>
+        <v>24837</v>
       </c>
       <c r="C13" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>malu gua</t>
+          <t>akhirnya lu update juga anjerr</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['malu', 'gua']</t>
+          <t>['akhirnya', 'lu', 'update', 'juga', 'anjerr']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['akhirnya', 'kamu', 'pembaruan', 'juga', 'anjerr']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['malu', 'gua']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['malu', 'gua']</t>
+          <t>['pembaruan', 'anjerr']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['baru', 'anjerr']</t>
         </is>
       </c>
     </row>
@@ -899,34 +968,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21223</v>
+        <v>24838</v>
       </c>
       <c r="C14" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>malu gua</t>
+          <t>gaada dah balik semua</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['malu', 'gua']</t>
+          <t>['gaada', 'dah', 'balik', 'semua']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tidak, ada', 'sudah', 'balik', 'semua']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['malu', 'gua']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['malu', 'gua']</t>
+          <t>['tidak, ada']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['tidak ada']</t>
         </is>
       </c>
     </row>
@@ -935,34 +1009,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21224</v>
+        <v>24839</v>
       </c>
       <c r="C15" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>bangsat gua malu anjg mana salah tulis</t>
+          <t>sksksk anying gua telat meet</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['bangsat', 'gua', 'malu', 'anjg', 'mana', 'salah', 'tulis']</t>
+          <t>['sksksk', 'anying', 'gua', 'telat', 'meet']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['sksksk', 'anjing', 'gue', 'telat', 'meet']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['bangsat', 'gua', 'malu', 'anjg', 'salah', 'tulis']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['bangsat', 'gua', 'malu', 'anjg', 'salah', 'tulis']</t>
+          <t>['sksksk', 'anjing', 'gue', 'telat', 'meet']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['sksksk', 'anjing', 'gue', 'telat', 'meet']</t>
         </is>
       </c>
     </row>
@@ -971,34 +1050,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21225</v>
+        <v>24840</v>
       </c>
       <c r="C16" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>haii</t>
+          <t>done min</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['haii']</t>
+          <t>['done', 'min']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['done', 'min']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['haii']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['hai']</t>
+          <t>['done', 'min']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['done', 'min']</t>
         </is>
       </c>
     </row>
@@ -1007,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21226</v>
+        <v>24841</v>
       </c>
       <c r="C17" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>anjir gua baru inget makanan tadi gua blm gua makan</t>
+          <t>rt find one of your dream boyfriend girlfriend and bestfriend heres just click our carrd and find the way to your euphori</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['anjir', 'gua', 'baru', 'inget', 'makanan', 'tadi', 'gua', 'blm', 'gua', 'makan']</t>
+          <t>['rt', 'find', 'one', 'of', 'your', 'dream', 'boyfriend', 'girlfriend', 'and', 'bestfriend', 'heres', 'just', 'click', 'our', 'carrd', 'and', 'find', 'the', 'way', 'to', 'your', 'euphori']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'find', 'one', 'of', 'your', 'dream', 'boyfriend', 'girlfriend', 'and', 'bestfriend', 'heres', 'just', 'click', 'our', 'carrd', 'and', 'find', 'the', 'way', 'to', 'your', 'euphori']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['anjir', 'gua', 'inget', 'makanan', 'gua', 'blm', 'gua', 'makan']</t>
+          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['anjir', 'gua', 'inget', 'makan', 'gua', 'blm', 'gua', 'makan']</t>
+          <t>['find', 'one', 'of', 'your', 'dream', 'boyfriend', 'girlfriend', 'and', 'bestfriend', 'heres', 'just', 'click', 'our', 'carrd', 'and', 'find', 'the', 'way', 'to', 'your', 'euphori']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['find', 'one', 'of', 'your', 'dream', 'boyfriend', 'girlfriend', 'and', 'bestfriend', 'heres', 'just', 'click', 'our', 'carrd', 'and', 'find', 'the', 'way', 'to', 'your', 'euphori']</t>
         </is>
       </c>
     </row>
@@ -1043,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21227</v>
+        <v>24842</v>
       </c>
       <c r="C18" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>abel malaikat</t>
+          <t>plisss anjgg ah</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['abel', 'malaikat']</t>
+          <t>['plisss', 'anjgg', 'ah']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['plisss', 'anjgg', 'ah']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['abel', 'malaikat']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['abel', 'malaikat']</t>
+          <t>['plisss', 'anjgg', 'ah']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['plisss', 'anjgg', 'ah']</t>
         </is>
       </c>
     </row>
@@ -1079,34 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21228</v>
+        <v>24843</v>
       </c>
       <c r="C19" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ekwk pingin gua pake lagi tapi takut gimana gitu soalnya dia juga mutualan sama gua</t>
+          <t>hii</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['ekwk', 'pingin', 'gua', 'pake', 'lagi', 'tapi', 'takut', 'gimana', 'gitu', 'soalnya', 'dia', 'juga', 'mutualan', 'sama', 'gua']</t>
+          <t>['hii']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['hai']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['ekwk', 'pingin', 'gua', 'pake', 'takut', 'gimana', 'gitu', 'mutualan', 'gua']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['ekwk', 'pingin', 'gua', 'pake', 'takut', 'gimana', 'gitu', 'mutualan', 'gua']</t>
+          <t>['hai']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['hai']</t>
         </is>
       </c>
     </row>
@@ -1115,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21229</v>
+        <v>24844</v>
       </c>
       <c r="C20" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ke sana aja</t>
+          <t>plis jangan inget dia lagi</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['ke', 'sana', 'aja']</t>
+          <t>['plis', 'jangan', 'inget', 'dia', 'lagi']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['tolong', 'jangan', 'ingat', 'dia', 'lagi']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tolong']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['tolong']</t>
         </is>
       </c>
     </row>
@@ -1151,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21230</v>
+        <v>24845</v>
       </c>
       <c r="C21" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>jhmn dia entar takutnya ketukar gua juga mutualan sama dia</t>
+          <t>ya allah padahal tadi mau buat tapi lupa giamna skskskk</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['jhmn', 'dia', 'entar', 'takutnya', 'ketukar', 'gua', 'juga', 'mutualan', 'sama', 'dia']</t>
+          <t>['ya', 'allah', 'padahal', 'tadi', 'mau', 'buat', 'tapi', 'lupa', 'giamna', 'skskskk']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['ya', 'allah', 'padahal', 'tadi', 'mau', 'buat', 'tapi', 'lupa', 'giamna', 'skskskk']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['jhmn', 'entar', 'takutnya', 'ketukar', 'gua', 'mutualan']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['jhmn', 'entar', 'takut', 'tukar', 'gua', 'mutualan']</t>
+          <t>['allah', 'lupa', 'giamna', 'skskskk']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['allah', 'lupa', 'giamna', 'skskskk']</t>
         </is>
       </c>
     </row>
@@ -1187,34 +1296,35 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21231</v>
+        <v>24846</v>
       </c>
       <c r="C22" t="n">
-        <v>257</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>xylemfloem bener pingin make lagi tapi udah ada yang make</t>
-        </is>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['xylemfloem', 'bener', 'pingin', 'make', 'lagi', 'tapi', 'udah', 'ada', 'yang', 'make']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['xylemfloem', 'bener', 'pingin', 'make', 'udah', 'make']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['xylemfloem', 'bener', 'pingin', 'make', 'udah', 'make']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1223,34 +1333,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21232</v>
+        <v>24847</v>
       </c>
       <c r="C23" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>bener pingin make lagi tapi udah ada yang make</t>
+          <t>anjir kaget</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['bener', 'pingin', 'make', 'lagi', 'tapi', 'udah', 'ada', 'yang', 'make']</t>
+          <t>['anjir', 'kaget']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['anjir', 'kaget']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['bener', 'pingin', 'make', 'udah', 'make']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['bener', 'pingin', 'make', 'udah', 'make']</t>
+          <t>['anjir', 'kaget']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['anjir', 'kaget']</t>
         </is>
       </c>
     </row>
@@ -1259,34 +1374,35 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21233</v>
+        <v>24848</v>
       </c>
       <c r="C24" t="n">
-        <v>257</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>bener pingin make lagi tapi udah ada yang make</t>
-        </is>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['bener', 'pingin', 'make', 'lagi', 'tapi', 'udah', 'ada', 'yang', 'make']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['bener', 'pingin', 'make', 'udah', 'make']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['bener', 'pingin', 'make', 'udah', 'make']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1295,34 +1411,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21234</v>
+        <v>24849</v>
       </c>
       <c r="C25" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ngaa</t>
+          <t>pasang di web</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['ngaa']</t>
+          <t>['pasang', 'di', 'web']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['pasang', 'di', 'web']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['ngaa']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['ngaa']</t>
+          <t>['pasang', 'web']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['pasang', 'web']</t>
         </is>
       </c>
     </row>
@@ -1331,34 +1452,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21235</v>
+        <v>24850</v>
       </c>
       <c r="C26" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>engga tau</t>
+          <t>bye muk tidur dulu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['engga', 'tau']</t>
+          <t>['bye', 'muk', 'tidur', 'dulu']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['bye', 'muk', 'tidur', 'dulu']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['engga']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['engga']</t>
+          <t>['bye', 'muk', 'tidur']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['bye', 'muk', 'tidur']</t>
         </is>
       </c>
     </row>
@@ -1367,34 +1493,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21236</v>
+        <v>24851</v>
       </c>
       <c r="C27" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>iyaa</t>
+          <t>gua sering gonta ganti ava main acc padahal lagi close buat apa juga nyek</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['iyaa']</t>
+          <t>['gua', 'sering', 'gonta', 'ganti', 'ava', 'main', 'acc', 'padahal', 'lagi', 'close', 'buat', 'apa', 'juga', 'nyek']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['gue', 'sering', 'gonta', 'ganti', 'ava', 'main', 'acc', 'padahal', 'lagi', 'close', 'buat', 'apa', 'juga', 'nyek']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['iyaa']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['iyaa']</t>
+          <t>['gue', 'gonta', 'ganti', 'ava', 'main', 'acc', 'close', 'nyek']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['gue', 'gonta', 'ganti', 'ava', 'main', 'acc', 'close', 'nyek']</t>
         </is>
       </c>
     </row>
@@ -1403,34 +1534,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21237</v>
+        <v>24852</v>
       </c>
       <c r="C28" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ga dlu gua udah sama jaehyun</t>
+          <t>heh bsk minggu anjrit bikin deg an lu</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['ga', 'dlu', 'gua', 'udah', 'sama', 'jaehyun']</t>
+          <t>['heh', 'bsk', 'minggu', 'anjrit', 'bikin', 'deg', 'an', 'lu']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['he', 'besok', 'minggu', 'anjrit', 'bikin', 'deg', 'an', 'kamu']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['dlu', 'gua', 'udah', 'jaehyun']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['dlu', 'gua', 'udah', 'jaehyun']</t>
+          <t>['he', 'besok', 'minggu', 'anjrit', 'deg', 'an']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['he', 'besok', 'minggu', 'anjrit', 'deg', 'an']</t>
         </is>
       </c>
     </row>
@@ -1439,34 +1575,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21238</v>
+        <v>24853</v>
       </c>
       <c r="C29" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>kangen waktu make ini</t>
+          <t>sangat gaib kak</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['kangen', 'waktu', 'make', 'ini']</t>
+          <t>['sangat', 'gaib', 'kak']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['sangat', 'gaib', 'kak']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['kangen', 'make']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['kangen', 'make']</t>
+          <t>['gaib', 'kak']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['gaib', 'kak']</t>
         </is>
       </c>
     </row>
@@ -1475,34 +1616,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21239</v>
+        <v>24854</v>
       </c>
       <c r="C30" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>adh adh</t>
+          <t>ni pasti gaib</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['adh', 'adh']</t>
+          <t>['ni', 'pasti', 'gaib']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 2 outcomes&gt;</t>
+          <t>['nih', 'pasti', 'gaib']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['adh', 'adh']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['adh', 'adh']</t>
+          <t>['gaib']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['gaib']</t>
         </is>
       </c>
     </row>
@@ -1511,34 +1657,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21240</v>
+        <v>24855</v>
       </c>
       <c r="C31" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>karen pliss</t>
+          <t>kasian</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['karen', 'pliss']</t>
+          <t>['kasian']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kasihan']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['karen', 'pliss']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['karen', 'pliss']</t>
+          <t>['kasihan']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['kasihan']</t>
         </is>
       </c>
     </row>
@@ -1547,34 +1698,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21241</v>
+        <v>24856</v>
       </c>
       <c r="C32" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>siapa iniii</t>
+          <t>nonton film</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['siapa', 'iniii']</t>
+          <t>['nonton', 'film']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['menonton', 'film']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['iniii']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['iniii']</t>
+          <t>['menonton', 'film']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['tonton', 'film']</t>
         </is>
       </c>
     </row>
@@ -1583,34 +1739,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21242</v>
+        <v>24857</v>
       </c>
       <c r="C33" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>jingan</t>
+          <t>ni pasti gaib</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['jingan']</t>
+          <t>['ni', 'pasti', 'gaib']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['nih', 'pasti', 'gaib']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['jingan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['jingan']</t>
+          <t>['gaib']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['gaib']</t>
         </is>
       </c>
     </row>
@@ -1619,34 +1780,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21243</v>
+        <v>24858</v>
       </c>
       <c r="C34" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>emang biasanya pasarannya berapa</t>
+          <t>ga</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['emang', 'biasanya', 'pasarannya', 'berapa']</t>
+          <t>['ga']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tidak']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['emang', 'pasarannya']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['emang', 'pasar']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1655,34 +1821,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21244</v>
+        <v>24859</v>
       </c>
       <c r="C35" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>hallo</t>
+          <t>kalau engga mau fb mah kagak usah ngajak mutualan kan</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['hallo']</t>
+          <t>['kalau', 'engga', 'mau', 'fb', 'mah', 'kagak', 'usah', 'ngajak', 'mutualan', 'kan']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kalau', 'tidak', 'mau', 'facebook', 'adalah', 'tidak', 'usah', 'mengajak', 'mutualan', 'kan']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['hallo']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['hallo']</t>
+          <t>['facebook', 'mengajak', 'mutualan']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['facebook', 'ajak', 'mutualan']</t>
         </is>
       </c>
     </row>
@@ -1691,34 +1862,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21245</v>
+        <v>24860</v>
       </c>
       <c r="C36" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>gabisa</t>
+          <t>kalau engga mau fb mah kagak usah ngajak mutualan kan</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['gabisa']</t>
+          <t>['kalau', 'engga', 'mau', 'fb', 'mah', 'kagak', 'usah', 'ngajak', 'mutualan', 'kan']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['kalau', 'tidak', 'mau', 'facebook', 'adalah', 'tidak', 'usah', 'mengajak', 'mutualan', 'kan']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['gabisa']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['gabisa']</t>
+          <t>['facebook', 'mengajak', 'mutualan']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['facebook', 'ajak', 'mutualan']</t>
         </is>
       </c>
     </row>
@@ -1727,34 +1903,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21246</v>
+        <v>24861</v>
       </c>
       <c r="C37" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>pha disini ada yg pernah war pc sistem dm</t>
+          <t>kalau engga mau fb mah kagak usah ngajak mutualan</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['pha', 'disini', 'ada', 'yg', 'pernah', 'war', 'pc', 'sistem', 'dm']</t>
+          <t>['kalau', 'engga', 'mau', 'fb', 'mah', 'kagak', 'usah', 'ngajak', 'mutualan']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['kalau', 'tidak', 'mau', 'facebook', 'adalah', 'tidak', 'usah', 'mengajak', 'mutualan']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['pha', 'war', 'pc', 'sistem', 'dm']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['pha', 'war', 'pc', 'sistem', 'dm']</t>
+          <t>['facebook', 'mengajak', 'mutualan']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['facebook', 'ajak', 'mutualan']</t>
         </is>
       </c>
     </row>
@@ -1763,34 +1944,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21247</v>
+        <v>24862</v>
       </c>
       <c r="C38" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>lu anaknya baik kok terus anaknya asik kita di main emang kurang deket tapi menurut gua kita dirant udah agak deke</t>
+          <t>gatau lupa instagram gua aja ku uni</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['lu', 'anaknya', 'baik', 'kok', 'terus', 'anaknya', 'asik', 'kita', 'di', 'main', 'emang', 'kurang', 'deket', 'tapi', 'menurut', 'gua', 'kita', 'dirant', 'udah', 'agak', 'deke']</t>
+          <t>['gatau', 'lupa', 'instagram', 'gua', 'aja', 'ku', 'uni']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['tak, tau', 'lupa', 'instagram', 'gue', 'saja', 'ku', 'uni']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['lu', 'anaknya', 'anaknya', 'asik', 'main', 'emang', 'deket', 'gua', 'dirant', 'udah', 'deke']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['lu', 'anak', 'anak', 'asik', 'main', 'emang', 'deket', 'gua', 'dirant', 'udah', 'deke']</t>
+          <t>['tak, tau', 'lupa', 'instagram', 'gue', 'ku', 'uni']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['tak tau', 'lupa', 'instagram', 'gue', 'ku', 'uni']</t>
         </is>
       </c>
     </row>
@@ -1799,32 +1985,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21248</v>
+        <v>24863</v>
       </c>
       <c r="C39" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>buat aja</t>
+          <t>engga keknya</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['buat', 'aja']</t>
+          <t>['engga', 'keknya']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['tidak', 'sepertinya']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1835,34 +2026,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21249</v>
+        <v>24864</v>
       </c>
       <c r="C40" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>jingan gua lupa kalau ig gua uni fak ini gimana</t>
+          <t>mana dia percaya anying</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['jingan', 'gua', 'lupa', 'kalau', 'ig', 'gua', 'uni', 'fak', 'ini', 'gimana']</t>
+          <t>['mana', 'dia', 'percaya', 'anying']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['mana', 'dia', 'percaya', 'anjing']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['jingan', 'gua', 'lupa', 'ig', 'gua', 'uni', 'fak', 'gimana']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['jingan', 'gua', 'lupa', 'ig', 'gua', 'uni', 'fak', 'gimana']</t>
+          <t>['percaya', 'anjing']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['percaya', 'anjing']</t>
         </is>
       </c>
     </row>
@@ -1871,34 +2067,2450 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21250</v>
+        <v>24865</v>
       </c>
       <c r="C41" t="n">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>semangat ahra</t>
+          <t>anjir pliss</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['semangat', 'ahra']</t>
+          <t>['anjir', 'pliss']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['anjir', 'please']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['semangat', 'ahra']</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['semangat', 'ahra']</t>
+          <t>['anjir', 'please']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['anjir', 'please']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>24866</v>
+      </c>
+      <c r="C42" t="n">
+        <v>297</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>dongo</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['dongo']</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['dongok']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['dongok']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['dongok']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>24867</v>
+      </c>
+      <c r="C43" t="n">
+        <v>297</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>lu ngajak mutualan tapi engga di fb tu maksudnya apa ya nyek</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['lu', 'ngajak', 'mutualan', 'tapi', 'engga', 'di', 'fb', 'tu', 'maksudnya', 'apa', 'ya', 'nyek']</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>['kamu', 'mengajak', 'mutualan', 'tapi', 'tidak', 'di', 'facebook', 'itu', 'maksudnya', 'apa', 'ya', 'nyek']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['mengajak', 'mutualan', 'facebook', 'maksudnya', 'nyek']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['ajak', 'mutualan', 'facebook', 'maksud', 'nyek']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>24868</v>
+      </c>
+      <c r="C44" t="n">
+        <v>297</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>coba kirim form</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['coba', 'kirim', 'form']</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>['coba', 'kirim', 'borang']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['coba', 'kirim', 'borang']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['coba', 'kirim', 'borang']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>24869</v>
+      </c>
+      <c r="C45" t="n">
+        <v>297</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ga dlu</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['ga', 'dlu']</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['tidak', 'dulu']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>24870</v>
+      </c>
+      <c r="C46" t="n">
+        <v>297</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ini rant siapa ya sorry gua lupa</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['ini', 'rant', 'siapa', 'ya', 'sorry', 'gua', 'lupa']</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['ini', 'rant', 'siapa', 'ya', 'maaf', 'gue', 'lupa']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['rant', 'maaf', 'gue', 'lupa']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['rant', 'maaf', 'gue', 'lupa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>24871</v>
+      </c>
+      <c r="C47" t="n">
+        <v>297</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>bener jadi ketagihan</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['bener', 'jadi', 'ketagihan']</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['benar', 'jadi', 'ketagihan']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['ketagihan']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['tagih']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>24872</v>
+      </c>
+      <c r="C48" t="n">
+        <v>297</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>kalau udah nemu orang ba nya aja gua jajanin</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>['kalau', 'udah', 'nemu', 'orang', 'ba', 'nya', 'aja', 'gua', 'jajanin']</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['kalau', 'sudah', 'menemukan', 'orang', 'ba', 'nya', 'saja', 'gue', 'jajanin']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['menemukan', 'orang', 'ba', 'gue', 'jajanin']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['temu', 'orang', 'ba', 'gue', 'jajanin']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>24873</v>
+      </c>
+      <c r="C49" t="n">
+        <v>297</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>coba cek di pin gua tapi tu au yang udah gua baca sih</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['coba', 'cek', 'di', 'pin', 'gua', 'tapi', 'tu', 'au', 'yang', 'udah', 'gua', 'baca', 'sih']</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['coba', 'cek', 'di', 'pin', 'gue', 'tapi', 'itu', 'au', 'yang', 'sudah', 'gue', 'baca', 'sih']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['coba', 'cek', 'pin', 'gue', 'au', 'gue', 'baca']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['coba', 'cek', 'pin', 'gue', 'au', 'gue', 'baca']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>24874</v>
+      </c>
+      <c r="C50" t="n">
+        <v>297</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>pengen jajan layout lagi</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>['pengen', 'jajan', 'layout', 'lagi']</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>['ingin', 'jajan', 'layout', 'lagi']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['jajan', 'layout']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['jajan', 'layout']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>24875</v>
+      </c>
+      <c r="C51" t="n">
+        <v>297</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>ava gua dah png blm</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['ava', 'gua', 'dah', 'png', 'blm']</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>['ava', 'gue', 'sudah', 'png', 'belum']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['ava', 'gue', 'png']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['ava', 'gue', 'png']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>24876</v>
+      </c>
+      <c r="C52" t="n">
+        <v>297</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ga dlu</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>['ga', 'dlu']</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['tidak', 'dulu']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>24877</v>
+      </c>
+      <c r="C53" t="n">
+        <v>297</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>haii</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>['haii']</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['hai']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['hai']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['hai']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>24878</v>
+      </c>
+      <c r="C54" t="n">
+        <v>297</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>gak dulu</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>['gak', 'dulu']</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['tidak', 'dulu']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>24879</v>
+      </c>
+      <c r="C55" t="n">
+        <v>297</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>kalau prom ada yang rt gaib tu rasanya deg deg an parah anjir</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>['kalau', 'prom', 'ada', 'yang', 'rt', 'gaib', 'tu', 'rasanya', 'deg', 'deg', 'an', 'parah', 'anjir']</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['kalau', 'prom', 'ada', 'yang', 'rt', 'gaib', 'itu', 'rasanya', 'deg', 'deg', 'an', 'parah', 'anjir']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['prom', 'gaib', 'deg', 'deg', 'an', 'parah', 'anjir']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['prom', 'gaib', 'deg', 'deg', 'an', 'parah', 'anjir']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>24880</v>
+      </c>
+      <c r="C56" t="n">
+        <v>297</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>dia cakep banget bajir</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['dia', 'cakep', 'banget', 'bajir']</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['dia', 'cakap', 'banget', 'bajir']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['cakap', 'banget', 'bajir']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['cakap', 'banget', 'bajir']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>24881</v>
+      </c>
+      <c r="C57" t="n">
+        <v>297</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>emang napa kok ganti</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>['emang', 'napa', 'kok', 'ganti']</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>['memang', 'kenapa', 'kok', 'ganti']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['ganti']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['ganti']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>24882</v>
+      </c>
+      <c r="C58" t="n">
+        <v>297</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>kenapa</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['kenapa']</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>['kenapa']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>24883</v>
+      </c>
+      <c r="C59" t="n">
+        <v>297</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>bajir dah mau subuh aja</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>['bajir', 'dah', 'mau', 'subuh', 'aja']</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>['bajir', 'sudah', 'mau', 'subuh', 'saja']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['bajir', 'subuh']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['bajir', 'subuh']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>24884</v>
+      </c>
+      <c r="C60" t="n">
+        <v>297</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>masih</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>['masih']</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>['masih']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>24885</v>
+      </c>
+      <c r="C61" t="n">
+        <v>297</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>rc jaemin di takedown kah</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>['rc', 'jaemin', 'di', 'takedown', 'kah']</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>['rc', 'jaemin', 'di', 'takedown', 'kah']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['rc', 'jaemin', 'takedown', 'kah']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['rc', 'jaemin', 'takedown', 'kah']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>24886</v>
+      </c>
+      <c r="C62" t="n">
+        <v>297</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>anjir lah gua kira beneran ternyata editan doangg</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['anjir', 'lah', 'gua', 'kira', 'beneran', 'ternyata', 'editan', 'doangg']</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>['anjir', 'lah', 'gue', 'kira', 'benaran', 'ternyata', 'editan', 'doangg']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['anjir', 'gue', 'benaran', 'editan', 'doangg']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['anjir', 'gue', 'benar', 'edit', 'doangg']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>24887</v>
+      </c>
+      <c r="C63" t="n">
+        <v>297</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>rt dream mysterylab</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>['rt', 'dream', 'mysterylab']</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>['rt', 'dream', 'mysterylab']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['dream', 'mysterylab']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['dream', 'mysterylab']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>24888</v>
+      </c>
+      <c r="C64" t="n">
+        <v>297</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>rt dream mysterylab</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>['rt', 'dream', 'mysterylab']</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>['rt', 'dream', 'mysterylab']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['dream', 'mysterylab']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['dream', 'mysterylab']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>24889</v>
+      </c>
+      <c r="C65" t="n">
+        <v>297</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>kan</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>['kan']</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>['kan']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>24890</v>
+      </c>
+      <c r="C66" t="n">
+        <v>297</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>muk ku jual</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>['muk', 'ku', 'jual']</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>['muk', 'ku', 'jual']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['muk', 'ku', 'jual']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['muk', 'ku', 'jual']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>24891</v>
+      </c>
+      <c r="C67" t="n">
+        <v>297</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>done min</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>['done', 'min']</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>['done', 'min']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['done', 'min']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['done', 'min']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>24892</v>
+      </c>
+      <c r="C68" t="n">
+        <v>297</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>takut kalau ada yang engga sesuai sama rulesnya juga padahal udah dicek berkali kali</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>['takut', 'kalau', 'ada', 'yang', 'engga', 'sesuai', 'sama', 'rulesnya', 'juga', 'padahal', 'udah', 'dicek', 'berkali', 'kali']</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>['takut', 'kalau', 'ada', 'yang', 'tidak', 'sesuai', 'sama', 'rulesnya', 'juga', 'padahal', 'sudah', 'dicek', 'berkali', 'kali']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['takut', 'sesuai', 'rulesnya', 'dicek', 'berkali', 'kali']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['takut', 'sesuai', 'rulesnya', 'cek', 'kali', 'kali']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>24893</v>
+      </c>
+      <c r="C69" t="n">
+        <v>297</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>oalah lu blm di fb di situ</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>['oalah', 'lu', 'blm', 'di', 'fb', 'di', 'situ']</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>['walah', 'kamu', 'belum', 'di', 'facebook', 'di', 'situ']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['walah', 'facebook', 'situ']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['walah', 'facebook', 'situ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>24894</v>
+      </c>
+      <c r="C70" t="n">
+        <v>297</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ikut dimana</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>['ikut', 'dimana']</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>['ikut', 'dimana']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['dimana']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['mana']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>24895</v>
+      </c>
+      <c r="C71" t="n">
+        <v>297</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>takutt aja soalnya tadi ada rep gaib</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>['takutt', 'aja', 'soalnya', 'tadi', 'ada', 'rep', 'gaib']</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>['takutt', 'saja', 'soalnya', 'tadi', 'ada', 'rep', 'gaib']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['takutt', 'rep', 'gaib']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['takutt', 'rep', 'gaib']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>24896</v>
+      </c>
+      <c r="C72" t="n">
+        <v>297</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>masih belum yakin sama prom ini</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>['masih', 'belum', 'yakin', 'sama', 'prom', 'ini']</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>['masih', 'belum', 'yakin', 'sama', 'prom', 'ini']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['prom']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['prom']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>24897</v>
+      </c>
+      <c r="C73" t="n">
+        <v>297</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>24898</v>
+      </c>
+      <c r="C74" t="n">
+        <v>297</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>gua tadi bikin prom tapi ku delete hihh</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>['gua', 'tadi', 'bikin', 'prom', 'tapi', 'ku', 'delete', 'hihh']</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>['gue', 'tadi', 'bikin', 'prom', 'tapi', 'ku', 'delete', 'hihh']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['gue', 'prom', 'ku', 'delete', 'hihh']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['gue', 'prom', 'ku', 'delete', 'hihh']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>24899</v>
+      </c>
+      <c r="C75" t="n">
+        <v>297</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>napa lu</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>['napa', 'lu']</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>['kenapa', 'kamu']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>24900</v>
+      </c>
+      <c r="C76" t="n">
+        <v>297</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>sama</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>['sama']</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>['sama']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>24901</v>
+      </c>
+      <c r="C77" t="n">
+        <v>297</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>gua bikinin tweet wts aja ya siapa tau entr di gedor sama sellernya sama entar kalau ada dibase atau gim</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>['gua', 'bikinin', 'tweet', 'wts', 'aja', 'ya', 'siapa', 'tau', 'entr', 'di', 'gedor', 'sama', 'sellernya', 'sama', 'entar', 'kalau', 'ada', 'dibase', 'atau', 'gim']</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>['gue', 'buatkan', 'twit', 'wts', 'saja', 'ya', 'siapa', 'tau', 'entar', 'di', 'gedor', 'sama', 'penjualnya', 'sama', 'nanti', 'kalau', 'ada', 'dibase', 'atau', 'gim']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>['gue', 'buatkan', 'twit', 'wts', 'entar', 'gedor', 'penjualnya', 'dibase', 'gim']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['gue', 'buat', 'twit', 'wts', 'entar', 'gedor', 'jual', 'dibase', 'gim']</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>24902</v>
+      </c>
+      <c r="C78" t="n">
+        <v>297</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>eh lu ini cari id card depart atau bs</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>['eh', 'lu', 'ini', 'cari', 'id', 'card', 'depart', 'atau', 'bs']</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>['eh', 'kamu', 'ini', 'cari', 'id', 'card', 'depart', 'atau', 'bisa']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['eh', 'cari', 'id', 'card', 'depart']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['eh', 'cari', 'id', 'card', 'depart']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>24903</v>
+      </c>
+      <c r="C79" t="n">
+        <v>297</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>abel soptie</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>['abel', 'soptie']</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>['abel', 'soptie']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['abel', 'soptie']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['abel', 'soptie']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>24904</v>
+      </c>
+      <c r="C80" t="n">
+        <v>297</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>gua ngakak liat ini komen</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>['gua', 'ngakak', 'liat', 'ini', 'komen']</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>['gue', 'tertawa', 'lihat', 'ini', 'komen']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['gue', 'tertawa', 'lihat', 'komen']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['gue', 'tertawa', 'lihat', 'komen']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>24905</v>
+      </c>
+      <c r="C81" t="n">
+        <v>297</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>mau nangis aja anjir</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>['mau', 'nangis', 'aja', 'anjir']</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>['mau', 'menangis', 'saja', 'anjir']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>['menangis', 'anjir']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['menang', 'anjir']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>24906</v>
+      </c>
+      <c r="C82" t="n">
+        <v>297</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>mauu nangis aja anjir</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>['mauu', 'nangis', 'aja', 'anjir']</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>['mau', 'menangis', 'saja', 'anjir']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['menangis', 'anjir']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['menang', 'anjir']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>24907</v>
+      </c>
+      <c r="C83" t="n">
+        <v>297</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>pha boleh ku pollow ini abel</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>['pha', 'boleh', 'ku', 'pollow', 'ini', 'abel']</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>['pha', 'boleh', 'ku', 'pollow', 'ini', 'abel']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['pha', 'ku', 'pollow', 'abel']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['pha', 'ku', 'pollow', 'abel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>24908</v>
+      </c>
+      <c r="C84" t="n">
+        <v>297</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>tolol banget</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>['tolol', 'banget']</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>['tolol', 'banget']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>['tolol', 'banget']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['tolol', 'banget']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>24909</v>
+      </c>
+      <c r="C85" t="n">
+        <v>297</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>24910</v>
+      </c>
+      <c r="C86" t="n">
+        <v>297</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>gua ngerasa akhir akhir ini goblok banget di mat</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>['gua', 'ngerasa', 'akhir', 'akhir', 'ini', 'goblok', 'banget', 'di', 'mat']</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>['gue', 'merasa', 'akhir', 'akhir', 'ini', 'goblok', 'banget', 'di', 'mat']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>['gue', 'goblok', 'banget', 'mat']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['gue', 'goblok', 'banget', 'mat']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>24911</v>
+      </c>
+      <c r="C87" t="n">
+        <v>297</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>dah gua kirim</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>['dah', 'gua', 'kirim']</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>['sudah', 'gue', 'kirim']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['gue', 'kirim']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['gue', 'kirim']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>24912</v>
+      </c>
+      <c r="C88" t="n">
+        <v>297</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>oke</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>['oke']</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>['oke']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>['oke']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['oke']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>24913</v>
+      </c>
+      <c r="C89" t="n">
+        <v>297</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>gini aja cek ombak kalau rame debut rep aja begitu atau gimana</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>['gini', 'aja', 'cek', 'ombak', 'kalau', 'rame', 'debut', 'rep', 'aja', 'begitu', 'atau', 'gimana']</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>['begini', 'saja', 'cek', 'ombak', 'kalau', 'ramai', 'debut', 'rep', 'saja', 'begitu', 'atau', 'bagaimana']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>['cek', 'ombak', 'ramai', 'debut', 'rep']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['cek', 'ombak', 'ramai', 'debut', 'rep']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>24914</v>
+      </c>
+      <c r="C90" t="n">
+        <v>297</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>jarang banget yang harga segitu max biasanya</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>['jarang', 'banget', 'yang', 'harga', 'segitu', 'max', 'biasanya']</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>['jarang', 'banget', 'yang', 'harga', 'sebegitu', 'max', 'biasanya']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['jarang', 'banget', 'harga', 'max']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['jarang', 'banget', 'harga', 'max']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>24915</v>
+      </c>
+      <c r="C91" t="n">
+        <v>297</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>cap nya apaa</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>['cap', 'nya', 'apaa']</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>['cap', 'nya', 'apa']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['cap']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['cap']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>24916</v>
+      </c>
+      <c r="C92" t="n">
+        <v>297</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>rame gak sih di nctzenhalu</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>['rame', 'gak', 'sih', 'di', 'nctzenhalu']</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>['ramai', 'tidak', 'sih', 'di', 'nctzenhalu']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>['ramai', 'nctzenhalu']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['ramai', 'nctzenhalu']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>24917</v>
+      </c>
+      <c r="C93" t="n">
+        <v>297</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>ogkey mau di post kapan</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>['ogkey', 'mau', 'di', 'post', 'kapan']</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>['ogkey', 'mau', 'di', 'post', 'kapan']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>['ogkey', 'post']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['ogkey', 'post']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>24918</v>
+      </c>
+      <c r="C94" t="n">
+        <v>297</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>campur di akun fa kah itu</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>['campur', 'di', 'akun', 'fa', 'kah', 'itu']</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>['campur', 'di', 'akun', 'fa', 'kah', 'itu']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>['campur', 'akun', 'fa', 'kah']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['campur', 'akun', 'fa', 'kah']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>24919</v>
+      </c>
+      <c r="C95" t="n">
+        <v>297</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>aku disini wahai adinda</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>['aku', 'disini', 'wahai', 'adinda']</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>['aku', 'di, sini', 'wahai', 'adinda']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>['di, sini', 'adinda']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['di sini', 'adinda']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>24920</v>
+      </c>
+      <c r="C96" t="n">
+        <v>297</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>mau max berapa</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>['mau', 'max', 'berapa']</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>['mau', 'max', 'berapa']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>['max']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['max']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>24921</v>
+      </c>
+      <c r="C97" t="n">
+        <v>297</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>gua sering nemu di akun selling gua</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>['gua', 'sering', 'nemu', 'di', 'akun', 'selling', 'gua']</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>['gue', 'sering', 'menemukan', 'di', 'akun', 'selling', 'gue']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>['gue', 'menemukan', 'akun', 'selling', 'gue']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['gue', 'temu', 'akun', 'selling', 'gue']</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>24922</v>
+      </c>
+      <c r="C98" t="n">
+        <v>297</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>lah lu mau kemana</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>['lah', 'lu', 'mau', 'kemana']</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>['lah', 'kamu', 'mau', 'kemana']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>['kemana']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['mana']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>24923</v>
+      </c>
+      <c r="C99" t="n">
+        <v>297</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>pindah apa</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>['pindah', 'apa']</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>['pindah', 'apa']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>['pindah']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['pindah']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>24924</v>
+      </c>
+      <c r="C100" t="n">
+        <v>297</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>cuk duit gua buat nabung anjg malah di pinjem</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>['cuk', 'duit', 'gua', 'buat', 'nabung', 'anjg', 'malah', 'di', 'pinjem']</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>['cuk', 'duit', 'gue', 'buat', 'menabung', 'anjing', 'malah', 'di', 'pinjam']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['cuk', 'duit', 'gue', 'menabung', 'anjing', 'pinjam']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['cuk', 'duit', 'gue', 'tabung', 'anjing', 'pinjam']</t>
         </is>
       </c>
     </row>
